--- a/utils/environments.xlsx
+++ b/utils/environments.xlsx
@@ -5,15 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhayakaw\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhayakaw\dev\handson4ops\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10335"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10332"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="org" sheetId="2" r:id="rId1"/>
+    <sheet name="01" sheetId="3" r:id="rId2"/>
+    <sheet name="02" sheetId="4" r:id="rId3"/>
+    <sheet name="03" sheetId="5" r:id="rId4"/>
+    <sheet name="07" sheetId="6" r:id="rId5"/>
+    <sheet name="08" sheetId="7" r:id="rId6"/>
+    <sheet name="09" sheetId="8" r:id="rId7"/>
+    <sheet name="10" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="91">
   <si>
     <t>ユーザー名</t>
     <rPh sb="4" eb="5">
@@ -140,10 +146,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>gse00013109</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>bala.gupta</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -176,10 +178,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>cloud.admin</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TorriD@5BuNKeR</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -192,18 +190,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>gse00013228</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bala.gupta</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TorriD@5BuNKeR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>db12c-ee-05</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -213,22 +199,6 @@
   </si>
   <si>
     <t>usoracle03294</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cloud.admin</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>usoracle03294</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>unmoveD@3MaRx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>unmoveD@3MaRx</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -346,68 +316,100 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>gse00013228</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TorriD@5BuNKeR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>eleCT@5Past</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Storage Cloud REST Endpoint</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Storage Cloud Auth v1 Endpoint</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://Storage-0ba4ba3f4bbb4a90b7f8983b637ab545.storage.oraclecloud.com/auth/v1.0</t>
+  </si>
+  <si>
+    <t>https://Storage-gse00013228.storage.oraclecloud.com/v1/Storage-0ba4ba3f4bbb4a90b7f8983b637ab545</t>
+  </si>
+  <si>
+    <t>db12c-ee-04:1521/PDB1.gse00013228.oraclecloud.internal</t>
+  </si>
+  <si>
+    <t>https://cloud.admin@developer.us2.oraclecloud.com/developer15409-gse00013228/s/developer15409-gse00013228_firstdemo-04_21854/scm/firstdemo-04.git</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://bala.gupta@developer.us2.oraclecloud.com/developer15409-gse00013228/s/developer15409-gse00013228_firstdemo-05_21855/scm/firstdemo-05.git</t>
+  </si>
+  <si>
+    <t>https://roland.dubois@developer.us2.oraclecloud.com/developer15409-gse00013228/s/developer15409-gse00013228_firstdemo-06_21856/scm/firstdemo-06.git</t>
+  </si>
+  <si>
     <t>https://gse00013109.storage.oraclecloud.com/v1/Storage-gse00013109</t>
-  </si>
-  <si>
-    <t>Storage Cloud Auth v1 Endpoint</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>https://gse00013109.storage.oraclecloud.com/auth/v1.0</t>
-  </si>
-  <si>
-    <t>https://Storage-0ba4ba3f4bbb4a90b7f8983b637ab545.storage.oraclecloud.com/v1/Storage-0ba4ba3f4bbb4a90b7f8983b637ab545</t>
-  </si>
-  <si>
-    <t>https://Storage-0ba4ba3f4bbb4a90b7f8983b637ab545.storage.oraclecloud.com/auth/v1.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://cloud.admin@developer.us2.oraclecloud.com/developer71906-gse00013109/s/developer71906-gse00013109_firstdemo-01_21851/scm/firstdemo-01.git</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://bala.gupta@developer.us2.oraclecloud.com/developer71906-gse00013109/s/developer71906-gse00013109_firstdemo-02_21852/scm/firstdemo-02.git</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://roland.dubois@developer.us2.oraclecloud.com/developer71906-gse00013109/s/developer71906-gse00013109_firstdemo-03_21853/scm/firstdemo-03.git</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>https://usoracle03294.storage.oraclecloud.com/v1/Storage-usoracle03294</t>
-  </si>
-  <si>
-    <t>roland.dubois</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://usoracle03294.storage.oraclecloud.com/auth/v1.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://cloud.admin@developer.us2.oraclecloud.com/developer48072-usoracle03294/s/developer48072-usoracle03294_firstdemo-07_21857/scm/firstdemo-07.git</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://bala.gupta@developer.us2.oraclecloud.com/developer48072-usoracle03294/s/developer48072-usoracle03294_firstdemo-08_21862/scm/firstdemo-08.git</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://roland.dubois@developer.us2.oraclecloud.com/developer48072-usoracle03294/s/developer48072-usoracle03294_firstdemo-09_21863/scm/firstdemo-09.git</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>https://gse00003036.storage.oraclecloud.com/v1/Storage-gse00003036</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>https://gse00003036.storage.oraclecloud.com/auth/v1.0</t>
-  </si>
-  <si>
-    <t>(No Data)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://gse00013109.storage.oraclecloud.com</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://Storage-0ba4ba3f4bbb4a90b7f8983b637ab545.storage.oraclecloud.com</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://usoracle03294.storage.oraclecloud.com</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://gse00003036.storage.oraclecloud.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://cloud.admin@developer.us2.oraclecloud.com/developer47172-gse00003036/s/developer47172-gse00003036_firstdemo-10_21861/scm/firstdemo-10.git</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Developer Cloud ソースリポジトリ名</t>
+    <rPh sb="24" eb="25">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DevCSソースリポジトリ名</t>
+    <rPh sb="13" eb="14">
+      <t>メイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -415,7 +417,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,8 +458,27 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -467,6 +488,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,7 +530,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -522,8 +549,26 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -843,26 +888,27 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.75" customWidth="1"/>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="75.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.8984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="1" customWidth="1"/>
+    <col min="6" max="7" width="58.19921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.59765625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.19921875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="67.59765625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="52.8984375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="148.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
         <v>19</v>
@@ -877,21 +923,30 @@
         <v>21</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>50</v>
+      <c r="J1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -903,175 +958,229 @@
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>51</v>
+      <c r="J2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="J4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="I5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="J5" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="J6" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>7</v>
@@ -1080,85 +1189,112 @@
         <v>8</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
-        <v>57</v>
+      <c r="J8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>15</v>
@@ -1167,17 +1303,29 @@
         <v>16</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>93</v>
-      </c>
+      <c r="J11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B15" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1188,409 +1336,859 @@
     <hyperlink ref="D4" r:id="rId4"/>
     <hyperlink ref="D5" r:id="rId5"/>
     <hyperlink ref="D2" r:id="rId6"/>
-    <hyperlink ref="I2" r:id="rId7"/>
-    <hyperlink ref="I3" r:id="rId8"/>
-    <hyperlink ref="I4" r:id="rId9"/>
-    <hyperlink ref="I5" r:id="rId10"/>
-    <hyperlink ref="I6" r:id="rId11"/>
-    <hyperlink ref="I7" r:id="rId12"/>
-    <hyperlink ref="I8" r:id="rId13"/>
-    <hyperlink ref="I9" r:id="rId14"/>
-    <hyperlink ref="I10" r:id="rId15"/>
-    <hyperlink ref="I11" r:id="rId16"/>
+    <hyperlink ref="L5" r:id="rId7"/>
+    <hyperlink ref="J8" r:id="rId8"/>
+    <hyperlink ref="K8" r:id="rId9"/>
+    <hyperlink ref="K9" r:id="rId10"/>
+    <hyperlink ref="K10" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="71" orientation="landscape" r:id="rId17"/>
+  <pageSetup paperSize="9" scale="26" orientation="landscape" r:id="rId12"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="A1:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="58.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="117.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="99.75" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="33.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="145" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="11" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="2" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="2" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="6" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1"/>
-    <hyperlink ref="D11" r:id="rId2"/>
-    <hyperlink ref="D3" r:id="rId3"/>
-    <hyperlink ref="D4" r:id="rId4"/>
-    <hyperlink ref="D5" r:id="rId5"/>
-    <hyperlink ref="D2" r:id="rId6"/>
+    <hyperlink ref="B4" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="71" orientation="landscape" r:id="rId7"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="65" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="A1:B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="33.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="145" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="33.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="145" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="33.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="145" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B10" r:id="rId2"/>
+    <hyperlink ref="B11" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="33.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="145" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B11" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="33.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="145" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B11" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="33.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="145" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId2"/>
 </worksheet>
 </file>